--- a/classfiers/nano/knn/smote/nano-knn-smote-results.xlsx
+++ b/classfiers/nano/knn/smote/nano-knn-smote-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9722222222222222</v>
+        <v>0.8729508196721312</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9859154929577465</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.979020979020979</v>
+        <v>0.9321663019693655</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9966827569485772</v>
+        <v>0.9950957702395909</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9634703196347032</v>
+        <v>0.9292035398230089</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9906103286384976</v>
+        <v>0.9859154929577465</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9768518518518519</v>
+        <v>0.9567198177676538</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9967158191716812</v>
+        <v>0.9928144768454231</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9181034482758621</v>
+        <v>0.8217054263565892</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>0.9953051643192489</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9573033707865168</v>
+        <v>0.9002123142250531</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9680949547047544</v>
+        <v>0.9360797019991625</v>
       </c>
     </row>
     <row r="5">
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.871900826446281</v>
+        <v>0.8108108108108109</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9906103286384976</v>
+        <v>0.9859154929577465</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9274725274725275</v>
+        <v>0.8898305084745763</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9811875950538914</v>
+        <v>0.9641825916374616</v>
       </c>
     </row>
     <row r="6">
@@ -543,16 +543,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.8467741935483871</v>
+        <v>0.81640625</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9859154929577465</v>
+        <v>0.9812206572769953</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9110629067245121</v>
+        <v>0.8912579957356076</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9609094315501775</v>
+        <v>0.9605347263550001</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9144942020254911</v>
+        <v>0.8502153693325081</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9906103286384976</v>
+        <v>0.9896713615023474</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9503423271712774</v>
+        <v>0.9140373876344512</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9807181114858163</v>
+        <v>0.9697414534153277</v>
       </c>
     </row>
   </sheetData>

--- a/classfiers/nano/knn/smote/nano-knn-smote-results.xlsx
+++ b/classfiers/nano/knn/smote/nano-knn-smote-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.8729508196721312</v>
+        <v>0.9743589743589743</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>0.979381443298969</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9321663019693655</v>
+        <v>0.9768637532133676</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9950957702395909</v>
+        <v>0.9892523116165374</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9292035398230089</v>
+        <v>0.9004739336492891</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9859154929577465</v>
+        <v>0.9844559585492227</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9567198177676538</v>
+        <v>0.9405940594059407</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9928144768454231</v>
+        <v>0.9931894663746594</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.8217054263565892</v>
+        <v>0.7549407114624506</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9953051643192489</v>
+        <v>0.9896373056994818</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9002123142250531</v>
+        <v>0.8565022421524664</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9360797019991625</v>
+        <v>0.9317477698840874</v>
       </c>
     </row>
     <row r="5">
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.8108108108108109</v>
+        <v>0.8304347826086956</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9859154929577465</v>
+        <v>0.9845360824742269</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8898305084745763</v>
+        <v>0.9009433962264152</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9641825916374616</v>
+        <v>0.9637305699481864</v>
       </c>
     </row>
     <row r="6">
@@ -543,16 +543,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.81640625</v>
+        <v>0.6655052264808362</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9812206572769953</v>
+        <v>0.9845360824742269</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8912579957356076</v>
+        <v>0.7941787941787941</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9605347263550001</v>
+        <v>0.9513647775225683</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.8502153693325081</v>
+        <v>0.8251427257120492</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9896713615023474</v>
+        <v>0.9845093744992255</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9140373876344512</v>
+        <v>0.8938164490353968</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9697414534153277</v>
+        <v>0.9658569790692078</v>
       </c>
     </row>
   </sheetData>
